--- a/Teaching/Outline.xlsx
+++ b/Teaching/Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\github\Acadamics\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95714BB9-1E78-4DFA-92C4-21D3F9181755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F256D-0A59-45A9-A420-59134F744F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{7DEBE6A8-CA06-43FF-9DFB-FC857312B30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Weeks</t>
   </si>
@@ -160,7 +160,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,13 +543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34E18B-0196-438B-AC3A-398C521EB266}">
   <dimension ref="A5:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="41.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -553,7 +562,7 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +580,7 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -583,7 +592,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
@@ -601,7 +610,7 @@
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
@@ -619,7 +628,7 @@
       <c r="B9" s="8">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
@@ -637,7 +646,7 @@
       <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
@@ -655,7 +664,7 @@
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
@@ -671,7 +680,7 @@
       <c r="B12" s="8">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
@@ -687,7 +696,7 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
@@ -703,7 +712,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
@@ -719,14 +728,16 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -735,7 +746,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
@@ -751,7 +762,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
@@ -767,7 +778,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
@@ -783,7 +794,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
@@ -799,7 +810,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
@@ -815,7 +826,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
@@ -831,7 +842,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
         <v>20</v>
       </c>

--- a/Teaching/Outline.xlsx
+++ b/Teaching/Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\github\Acadamics\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9F256D-0A59-45A9-A420-59134F744F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F700DB6-C3D0-4D38-9B99-94B7AEA48A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{7DEBE6A8-CA06-43FF-9DFB-FC857312B30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Weeks</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t>Weka Naïve Bayes Classifier</t>
+  </si>
+  <si>
+    <t>Lab 1</t>
+  </si>
+  <si>
+    <t>Lab 2</t>
+  </si>
+  <si>
+    <t>Lab 3</t>
+  </si>
+  <si>
+    <t>Lab 4</t>
+  </si>
+  <si>
+    <t>Lab 5</t>
+  </si>
+  <si>
+    <t>Lab 6</t>
+  </si>
+  <si>
+    <t>Election</t>
+  </si>
+  <si>
+    <t>DM-A1</t>
+  </si>
+  <si>
+    <t>AI-D2</t>
+  </si>
+  <si>
+    <t>OS-H2</t>
+  </si>
+  <si>
+    <t>DM-C2</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -180,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,11 +239,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,6 +283,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34E18B-0196-438B-AC3A-398C521EB266}">
-  <dimension ref="A5:F30"/>
+  <dimension ref="A5:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,9 +617,11 @@
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="1.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="6" width="41.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -572,8 +638,14 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45313</v>
       </c>
@@ -584,8 +656,14 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45320</v>
       </c>
@@ -602,8 +680,17 @@
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45323</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45327</v>
       </c>
@@ -620,8 +707,20 @@
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45330</v>
+      </c>
+      <c r="I8" s="7">
+        <v>45331</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45334</v>
       </c>
@@ -638,8 +737,17 @@
       <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45337</v>
+      </c>
+      <c r="I9" s="7">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45341</v>
       </c>
@@ -656,8 +764,17 @@
       <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45344</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45348</v>
       </c>
@@ -672,8 +789,20 @@
         <v>23</v>
       </c>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7">
+        <v>45347</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45355</v>
       </c>
@@ -688,8 +817,17 @@
         <v>22</v>
       </c>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45358</v>
+      </c>
+      <c r="I12" s="7">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45362</v>
       </c>
@@ -704,8 +842,16 @@
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <v>45365</v>
+      </c>
+      <c r="I13" s="14">
+        <v>45366</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>45369</v>
       </c>
@@ -720,8 +866,16 @@
         <v>27</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14">
+        <v>45372</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45373</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45376</v>
       </c>
@@ -738,8 +892,16 @@
       <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>45379</v>
+      </c>
+      <c r="I15" s="14">
+        <v>45380</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>45383</v>
       </c>
@@ -754,8 +916,16 @@
         <v>28</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>45386</v>
+      </c>
+      <c r="I16" s="14">
+        <v>45387</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45390</v>
       </c>
@@ -770,8 +940,16 @@
         <v>33</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="13"/>
+      <c r="H17" s="14">
+        <v>45393</v>
+      </c>
+      <c r="I17" s="14">
+        <v>45394</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>45397</v>
       </c>
@@ -786,8 +964,16 @@
         <v>34</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14">
+        <v>45400</v>
+      </c>
+      <c r="I18" s="14">
+        <v>45401</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45404</v>
       </c>
@@ -802,8 +988,16 @@
         <v>32</v>
       </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14">
+        <v>45407</v>
+      </c>
+      <c r="I19" s="14">
+        <v>45408</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>45411</v>
       </c>
@@ -818,8 +1012,16 @@
         <v>31</v>
       </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="13"/>
+      <c r="H20" s="14">
+        <v>45414</v>
+      </c>
+      <c r="I20" s="14">
+        <v>45415</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45418</v>
       </c>
@@ -834,8 +1036,16 @@
         <v>30</v>
       </c>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="13"/>
+      <c r="H21" s="14">
+        <v>45421</v>
+      </c>
+      <c r="I21" s="14">
+        <v>45422</v>
+      </c>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45425</v>
       </c>
@@ -850,29 +1060,37 @@
         <v>29</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+      <c r="H22" s="14">
+        <v>45428</v>
+      </c>
+      <c r="I22" s="14">
+        <v>45429</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>

--- a/Teaching/Outline.xlsx
+++ b/Teaching/Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\github\Acadamics\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F700DB6-C3D0-4D38-9B99-94B7AEA48A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D891A28-9990-412B-BC1F-3C0E23077070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{7DEBE6A8-CA06-43FF-9DFB-FC857312B30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Weeks</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Lab 7</t>
+  </si>
+  <si>
+    <t>Lab 8</t>
+  </si>
+  <si>
+    <t>Lab 9</t>
+  </si>
+  <si>
+    <t>Lab 10</t>
+  </si>
+  <si>
+    <t>Lab 11</t>
+  </si>
+  <si>
+    <t>Lab 12</t>
+  </si>
+  <si>
+    <t>Lab 13</t>
+  </si>
+  <si>
+    <t>Lab 14</t>
+  </si>
+  <si>
+    <t>Lab 15</t>
+  </si>
+  <si>
+    <t>Lab 16</t>
   </si>
 </sst>
 </file>
@@ -607,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A34E18B-0196-438B-AC3A-398C521EB266}">
   <dimension ref="A5:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +872,9 @@
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="14">
         <v>45365</v>
       </c>
@@ -860,13 +892,17 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="14">
         <v>45372</v>
       </c>
@@ -884,15 +920,14 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="H15" s="14">
         <v>45379</v>
       </c>
@@ -916,7 +951,9 @@
         <v>28</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" s="14">
         <v>45386</v>
       </c>
@@ -940,7 +977,9 @@
         <v>33</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="H17" s="14">
         <v>45393</v>
       </c>
@@ -964,7 +1003,9 @@
         <v>34</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="14">
         <v>45400</v>
       </c>
@@ -988,7 +1029,9 @@
         <v>32</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="14">
         <v>45407</v>
       </c>
@@ -1012,7 +1055,9 @@
         <v>31</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="14">
         <v>45414</v>
       </c>
@@ -1036,7 +1081,9 @@
         <v>30</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="14">
         <v>45421</v>
       </c>
@@ -1060,7 +1107,9 @@
         <v>29</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="H22" s="14">
         <v>45428</v>
       </c>
